--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -724,10 +724,10 @@
     <t>MORE VISION</t>
   </si>
   <si>
+    <t>ABYSS</t>
+  </si>
+  <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
   </si>
   <si>
     <t>빅플래닛메이드</t>
@@ -1391,6 +1391,12 @@
       <c r="F8" t="s">
         <v>180</v>
       </c>
+      <c r="G8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1412,7 +1418,7 @@
         <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H9" t="s">
         <v>248</v>
@@ -1438,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>248</v>
@@ -2165,6 +2171,12 @@
       <c r="F38" t="s">
         <v>194</v>
       </c>
+      <c r="G38" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -3584,7 +3596,7 @@
         <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H93" t="s">
         <v>248</v>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-13</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -1184,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3174,22 +3174,22 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F77" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3200,19 +3200,19 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H78" t="s">
         <v>248</v>
@@ -3226,19 +3226,19 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H79" t="s">
         <v>248</v>
@@ -3252,19 +3252,19 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="F80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H80" t="s">
         <v>248</v>
@@ -3278,22 +3278,22 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H81" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3304,22 +3304,22 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3330,22 +3330,22 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="G83" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="H83" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3356,22 +3356,22 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G84" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3382,22 +3382,22 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3408,22 +3408,22 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="H86" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3434,22 +3434,22 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H87" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3460,19 +3460,19 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H88" t="s">
         <v>248</v>
@@ -3486,19 +3486,19 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H89" t="s">
         <v>248</v>
@@ -3512,16 +3512,16 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
         <v>239</v>
@@ -3538,22 +3538,16 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s">
-        <v>239</v>
-      </c>
-      <c r="H91" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3564,16 +3558,22 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="G92" t="s">
+        <v>237</v>
+      </c>
+      <c r="H92" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3584,19 +3584,19 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H93" t="s">
         <v>248</v>
@@ -3610,22 +3610,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H94" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3636,22 +3636,22 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G95" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="H95" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3662,22 +3662,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G96" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H96" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3688,22 +3688,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G97" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3714,19 +3714,19 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="F98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H98" t="s">
         <v>248</v>
@@ -3740,19 +3740,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="H99" t="s">
         <v>248</v>
@@ -3766,19 +3766,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H100" t="s">
         <v>248</v>
@@ -3792,47 +3792,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G101" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>168</v>
-      </c>
-      <c r="F102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" t="s">
-        <v>239</v>
-      </c>
-      <c r="H102" t="s">
         <v>248</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -755,9 +755,6 @@
   </si>
   <si>
     <t>물고기뮤직</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>기타</t>
@@ -1265,7 +1262,7 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1343,7 +1340,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1395,7 +1392,7 @@
         <v>236</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1421,7 +1418,7 @@
         <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1447,7 +1444,7 @@
         <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1499,7 +1496,7 @@
         <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1525,7 +1522,7 @@
         <v>239</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1551,7 +1548,7 @@
         <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1577,7 +1574,7 @@
         <v>241</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1603,7 +1600,7 @@
         <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1629,7 +1626,7 @@
         <v>243</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1655,7 +1652,7 @@
         <v>244</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1681,7 +1678,7 @@
         <v>245</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1707,7 +1704,7 @@
         <v>245</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1733,7 +1730,7 @@
         <v>246</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1759,7 +1756,7 @@
         <v>247</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1782,10 +1779,10 @@
         <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1863,7 +1860,7 @@
         <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1886,10 +1883,10 @@
         <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1915,7 +1912,7 @@
         <v>239</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1941,7 +1938,7 @@
         <v>239</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1967,7 +1964,7 @@
         <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1990,10 +1987,10 @@
         <v>189</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2042,10 +2039,10 @@
         <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2071,7 +2068,7 @@
         <v>238</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2120,10 +2117,10 @@
         <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2175,7 +2172,7 @@
         <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2198,10 +2195,10 @@
         <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2276,10 +2273,10 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2302,10 +2299,10 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2328,10 +2325,10 @@
         <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2380,10 +2377,10 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2409,7 +2406,7 @@
         <v>245</v>
       </c>
       <c r="H47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,7 +2432,7 @@
         <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2461,7 +2458,7 @@
         <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2487,7 +2484,7 @@
         <v>245</v>
       </c>
       <c r="H50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2513,7 +2510,7 @@
         <v>239</v>
       </c>
       <c r="H51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2539,7 +2536,7 @@
         <v>245</v>
       </c>
       <c r="H52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2565,7 +2562,7 @@
         <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2588,10 +2585,10 @@
         <v>202</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2617,7 +2614,7 @@
         <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2643,7 +2640,7 @@
         <v>247</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2692,10 +2689,10 @@
         <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2721,7 +2718,7 @@
         <v>239</v>
       </c>
       <c r="H59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2744,10 +2741,10 @@
         <v>205</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2770,10 +2767,10 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2799,7 +2796,7 @@
         <v>244</v>
       </c>
       <c r="H62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2822,10 +2819,10 @@
         <v>207</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2874,10 +2871,10 @@
         <v>208</v>
       </c>
       <c r="G65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2903,7 +2900,7 @@
         <v>247</v>
       </c>
       <c r="H66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2929,7 +2926,7 @@
         <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2952,10 +2949,10 @@
         <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2981,7 +2978,7 @@
         <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3004,10 +3001,10 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3030,10 +3027,10 @@
         <v>210</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3059,7 +3056,7 @@
         <v>239</v>
       </c>
       <c r="H72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3082,10 +3079,10 @@
         <v>211</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3111,7 +3108,7 @@
         <v>239</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3137,7 +3134,7 @@
         <v>245</v>
       </c>
       <c r="H75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3163,7 +3160,7 @@
         <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3186,10 +3183,10 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3212,10 +3209,10 @@
         <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3238,10 +3235,10 @@
         <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3267,7 +3264,7 @@
         <v>245</v>
       </c>
       <c r="H80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3342,10 +3339,10 @@
         <v>217</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3368,10 +3365,10 @@
         <v>218</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3394,10 +3391,10 @@
         <v>219</v>
       </c>
       <c r="G85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3420,10 +3417,10 @@
         <v>220</v>
       </c>
       <c r="G86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3446,10 +3443,10 @@
         <v>221</v>
       </c>
       <c r="G87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3472,10 +3469,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3501,7 +3498,7 @@
         <v>239</v>
       </c>
       <c r="H89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3527,7 +3524,7 @@
         <v>239</v>
       </c>
       <c r="H90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3573,7 +3570,7 @@
         <v>237</v>
       </c>
       <c r="H92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,7 +3596,7 @@
         <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3651,7 +3648,7 @@
         <v>247</v>
       </c>
       <c r="H95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3700,10 +3697,10 @@
         <v>228</v>
       </c>
       <c r="G97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3726,10 +3723,10 @@
         <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3752,10 +3749,10 @@
         <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3778,10 +3775,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3807,7 +3804,7 @@
         <v>239</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
